--- a/data/HormoneData_18102023.xlsx
+++ b/data/HormoneData_18102023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristofferwild/Dropbox/lampro_cort_temp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E9001-3043-A04B-84CC-A7ED8A27505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4435CE5-A810-2148-AA8C-6B303855A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="3720" windowWidth="38400" windowHeight="21600" xr2:uid="{4FF59741-7DD8-4404-8777-CDCAFCCE9E74}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{4FF59741-7DD8-4404-8777-CDCAFCCE9E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="161">
   <si>
     <t>Plate</t>
   </si>
@@ -336,9 +336,6 @@
     <t>LD793_21</t>
   </si>
   <si>
-    <t>LD865_21</t>
-  </si>
-  <si>
     <t>LD866_21</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>LD862_21</t>
   </si>
   <si>
-    <t>LD807_211 OR LD809_21</t>
-  </si>
-  <si>
     <t>LD832_21</t>
   </si>
   <si>
@@ -613,6 +607,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>LD809_21</t>
   </si>
 </sst>
 </file>
@@ -1108,11 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D13E3A-76B9-451C-9A26-9AB9C96C4167}">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,13 +1133,13 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1151,58 +1148,58 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="K1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" t="s">
         <v>5</v>
       </c>
       <c r="N1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="V1" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X1" t="s">
         <v>4</v>
@@ -1211,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1234,7 +1231,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1252,13 +1249,13 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O2" s="1">
         <v>0.9</v>
@@ -1316,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1334,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>120</v>
@@ -1349,7 +1346,7 @@
         <v>5.4</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U66" si="0">(T3*Y3)/1000</f>
+        <f t="shared" ref="U3:U65" si="0">(T3*Y3)/1000</f>
         <v>0.54</v>
       </c>
       <c r="V3" s="14">
@@ -1385,7 +1382,7 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1403,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" s="1">
         <v>1.9</v>
@@ -1450,7 +1447,7 @@
         <v>172.11</v>
       </c>
       <c r="AA4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -1470,7 +1467,7 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1488,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>141</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O5" s="1">
         <v>0.1</v>
@@ -1535,7 +1532,7 @@
         <v>155.44999999999999</v>
       </c>
       <c r="AA5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1555,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1573,7 +1570,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>120</v>
@@ -1607,7 +1604,7 @@
         <v>162.41999999999999</v>
       </c>
       <c r="AA6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -1627,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1645,7 +1642,7 @@
         <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M7">
         <v>91</v>
@@ -1679,7 +1676,7 @@
         <v>70.95</v>
       </c>
       <c r="AA7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -1699,7 +1696,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -1717,7 +1714,7 @@
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>348</v>
@@ -1751,7 +1748,7 @@
         <v>183.51</v>
       </c>
       <c r="AA8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -1771,7 +1768,7 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1789,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M9">
         <v>137</v>
@@ -1828,7 +1825,7 @@
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1846,13 +1843,13 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M10">
         <v>99</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" s="1">
         <v>0.1</v>
@@ -1893,7 +1890,7 @@
         <v>112.33</v>
       </c>
       <c r="AA10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -1913,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1931,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11">
         <v>113</v>
@@ -1982,7 +1979,7 @@
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -2000,13 +1997,13 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12">
         <v>205</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O12" s="1">
         <v>0.7</v>
@@ -2064,7 +2061,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -2082,13 +2079,13 @@
         <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M13">
         <v>141</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O13" s="2">
         <v>0.1</v>
@@ -2146,7 +2143,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -2164,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M14">
         <v>252</v>
@@ -2198,7 +2195,7 @@
         <v>41.58</v>
       </c>
       <c r="AA14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2218,7 +2215,7 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -2236,7 +2233,7 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M15">
         <v>125</v>
@@ -2284,10 +2281,10 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16">
         <v>44</v>
@@ -2305,7 +2302,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="5"/>
       <c r="AA16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2325,7 +2322,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -2343,13 +2340,13 @@
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M17">
         <v>147</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O17" s="3">
         <v>0.5</v>
@@ -2390,7 +2387,7 @@
         <v>111.13</v>
       </c>
       <c r="AA17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -2410,7 +2407,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -2428,13 +2425,13 @@
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M18">
         <v>126</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O18" s="1">
         <v>4.3</v>
@@ -2492,7 +2489,7 @@
         <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -2510,13 +2507,13 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M19">
         <v>97</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O19" s="1">
         <v>2.5</v>
@@ -2574,7 +2571,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -2592,13 +2589,13 @@
         <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M20">
         <v>104</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O20" s="1">
         <v>1.2</v>
@@ -2656,7 +2653,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -2674,7 +2671,7 @@
         <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M21">
         <v>104</v>
@@ -2725,7 +2722,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -2743,13 +2740,13 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M22">
         <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O22" s="1">
         <v>1.9</v>
@@ -2807,7 +2804,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -2825,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M23">
         <v>157</v>
@@ -2864,7 +2861,7 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2882,13 +2879,13 @@
         <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M24">
         <v>109</v>
       </c>
       <c r="N24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O24" s="1">
         <v>1.3</v>
@@ -2935,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2953,7 +2950,7 @@
         <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M25">
         <v>147</v>
@@ -3004,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -3022,7 +3019,7 @@
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M26">
         <v>142</v>
@@ -3061,7 +3058,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3079,7 +3076,7 @@
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M27">
         <v>107</v>
@@ -3113,7 +3110,7 @@
         <v>140.88</v>
       </c>
       <c r="AA27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -3133,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -3151,13 +3148,13 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M28">
         <v>122</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O28" s="1">
         <v>0.9</v>
@@ -3215,7 +3212,7 @@
         <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3261,7 +3258,7 @@
         <v>205.56999999999996</v>
       </c>
       <c r="AA29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -3281,7 +3278,7 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3299,13 +3296,13 @@
         <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M30">
         <v>117</v>
       </c>
       <c r="N30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O30" s="2">
         <v>0.9</v>
@@ -3363,7 +3360,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -3381,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M31">
         <v>123</v>
@@ -3403,7 +3400,7 @@
         <v>132.97</v>
       </c>
       <c r="AA31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
@@ -3423,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3441,7 +3438,7 @@
         <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M32">
         <v>242</v>
@@ -3492,7 +3489,7 @@
         <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3510,7 +3507,7 @@
         <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M33">
         <v>115</v>
@@ -3561,7 +3558,7 @@
         <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -3579,7 +3576,7 @@
         <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M34">
         <v>147</v>
@@ -3613,7 +3610,7 @@
         <v>374.4</v>
       </c>
       <c r="AA34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
@@ -3630,10 +3627,10 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35">
         <v>42</v>
@@ -3648,7 +3645,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="1"/>
       <c r="AA35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -3668,7 +3665,7 @@
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
         <v>44</v>
@@ -3686,13 +3683,13 @@
         <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M36">
         <v>148</v>
       </c>
       <c r="N36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="3">
         <v>2.8827999999999999E-2</v>
@@ -3750,7 +3747,7 @@
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3768,13 +3765,13 @@
         <v>28</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M37">
         <v>110</v>
       </c>
       <c r="N37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="1">
         <v>0.7</v>
@@ -3815,7 +3812,7 @@
         <v>108.15999999999998</v>
       </c>
       <c r="AA37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -3835,7 +3832,7 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3853,13 +3850,13 @@
         <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M38">
         <v>126</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O38" s="1">
         <v>0.3</v>
@@ -3900,7 +3897,7 @@
         <v>199.36</v>
       </c>
       <c r="AA38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -3920,7 +3917,7 @@
         <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G39" t="s">
         <v>47</v>
@@ -3938,13 +3935,13 @@
         <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M39">
         <v>162</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O39" s="6">
         <v>1.4</v>
@@ -3985,7 +3982,7 @@
         <v>375.41</v>
       </c>
       <c r="AA39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -4005,7 +4002,7 @@
         <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4023,13 +4020,13 @@
         <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M40">
         <v>127</v>
       </c>
       <c r="N40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O40" s="1">
         <v>1.5</v>
@@ -4070,7 +4067,7 @@
         <v>147.44999999999999</v>
       </c>
       <c r="AA40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -4090,7 +4087,7 @@
         <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" t="s">
         <v>52</v>
@@ -4108,13 +4105,13 @@
         <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M41">
         <v>151</v>
       </c>
       <c r="N41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O41" s="1">
         <v>1.9</v>
@@ -4172,7 +4169,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
         <v>53</v>
@@ -4190,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M42">
         <v>127</v>
@@ -4224,7 +4221,7 @@
         <v>151.41999999999999</v>
       </c>
       <c r="AA42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -4244,7 +4241,7 @@
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
         <v>54</v>
@@ -4262,7 +4259,7 @@
         <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M43">
         <v>290</v>
@@ -4284,7 +4281,7 @@
         <v>26.57</v>
       </c>
       <c r="AA43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -4304,7 +4301,7 @@
         <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
@@ -4322,7 +4319,7 @@
         <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M44">
         <v>112</v>
@@ -4373,7 +4370,7 @@
         <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
         <v>56</v>
@@ -4391,7 +4388,7 @@
         <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M45">
         <v>120</v>
@@ -4442,7 +4439,7 @@
         <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G46" t="s">
         <v>57</v>
@@ -4460,13 +4457,13 @@
         <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M46">
         <v>141</v>
       </c>
       <c r="N46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O46" s="5">
         <v>2.6</v>
@@ -4524,7 +4521,7 @@
         <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -4542,13 +4539,13 @@
         <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M47">
         <v>193</v>
       </c>
       <c r="N47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O47" s="5">
         <v>1.2</v>
@@ -4589,7 +4586,7 @@
         <v>176.59</v>
       </c>
       <c r="AA47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
@@ -4609,7 +4606,7 @@
         <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G48" t="s">
         <v>59</v>
@@ -4627,13 +4624,13 @@
         <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M48">
         <v>114</v>
       </c>
       <c r="N48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O48" s="1">
         <v>1.5</v>
@@ -4691,7 +4688,7 @@
         <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G49" t="s">
         <v>60</v>
@@ -4709,7 +4706,7 @@
         <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M49">
         <v>139</v>
@@ -4743,7 +4740,7 @@
         <v>201.4</v>
       </c>
       <c r="AA49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
@@ -4763,7 +4760,7 @@
         <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G50" t="s">
         <v>62</v>
@@ -4781,13 +4778,13 @@
         <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>128</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O50" s="1">
         <v>0.2</v>
@@ -4828,7 +4825,7 @@
         <v>188.61</v>
       </c>
       <c r="AA50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
@@ -4848,7 +4845,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G51" t="s">
         <v>63</v>
@@ -4866,7 +4863,7 @@
         <v>28</v>
       </c>
       <c r="L51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M51">
         <v>119</v>
@@ -4900,7 +4897,7 @@
         <v>214.04</v>
       </c>
       <c r="AA51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
@@ -4920,7 +4917,7 @@
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G52" t="s">
         <v>64</v>
@@ -4938,13 +4935,13 @@
         <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M52">
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O52" s="1">
         <v>2.5</v>
@@ -4985,7 +4982,7 @@
         <v>198.22</v>
       </c>
       <c r="AA52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
@@ -5005,7 +5002,7 @@
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" t="s">
         <v>65</v>
@@ -5023,13 +5020,13 @@
         <v>28</v>
       </c>
       <c r="L53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M53">
         <v>159</v>
       </c>
       <c r="N53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O53" s="1">
         <v>0.9</v>
@@ -5070,7 +5067,7 @@
         <v>272.91000000000003</v>
       </c>
       <c r="AA53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
@@ -5090,7 +5087,7 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
@@ -5108,7 +5105,7 @@
         <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M54">
         <v>151</v>
@@ -5142,7 +5139,7 @@
         <v>313.89999999999998</v>
       </c>
       <c r="AA54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
@@ -5162,7 +5159,7 @@
         <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
@@ -5180,13 +5177,13 @@
         <v>28</v>
       </c>
       <c r="L55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M55">
         <v>136</v>
       </c>
       <c r="N55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O55" s="1">
         <v>1.2</v>
@@ -5227,7 +5224,7 @@
         <v>304.38</v>
       </c>
       <c r="AA55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
@@ -5247,7 +5244,7 @@
         <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G56" t="s">
         <v>68</v>
@@ -5265,13 +5262,13 @@
         <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M56">
         <v>126</v>
       </c>
       <c r="N56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O56" s="2">
         <v>1.3</v>
@@ -5329,7 +5326,7 @@
         <v>50</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5347,7 +5344,7 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M57">
         <v>242</v>
@@ -5386,47 +5383,59 @@
         <v>45077</v>
       </c>
       <c r="B58" s="12">
-        <v>0.51041666666666663</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
         <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H58" s="8">
-        <v>42</v>
-      </c>
-      <c r="I58" s="8">
-        <v>64</v>
-      </c>
-      <c r="J58" s="10">
-        <v>1.452</v>
+        <v>158</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58">
+        <v>39</v>
+      </c>
+      <c r="I58">
+        <v>54</v>
+      </c>
+      <c r="J58" s="9">
+        <v>1.3129999999999999</v>
       </c>
       <c r="K58">
         <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M58">
-        <v>115</v>
-      </c>
-      <c r="U58" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="R58" s="1">
+        <v>4</v>
+      </c>
+      <c r="S58" s="14">
+        <v>1</v>
+      </c>
+      <c r="T58" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="U58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
       <c r="V58" s="14">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="W58" s="1">
-        <v>1345.2</v>
+        <v>1647.6</v>
       </c>
       <c r="X58">
         <v>5</v>
@@ -5435,39 +5444,39 @@
         <v>100</v>
       </c>
       <c r="Z58" s="7">
-        <v>134.52000000000001</v>
+        <v>164.76</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B59" s="12">
-        <v>0.5131944444444444</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G59" t="s">
         <v>72</v>
       </c>
       <c r="H59">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I59">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J59" s="9">
-        <v>1.3129999999999999</v>
+        <v>1.127</v>
       </c>
       <c r="K59">
         <v>23</v>
@@ -5476,26 +5485,39 @@
         <v>102</v>
       </c>
       <c r="M59">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="N59" t="s">
+        <v>113</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P59" s="3">
+        <v>10343.9</v>
+      </c>
+      <c r="Q59" s="1">
+        <f>(P59*Y59)/1000</f>
+        <v>1034.3900000000001</v>
       </c>
       <c r="R59" s="1">
         <v>4</v>
       </c>
       <c r="S59" s="14">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="T59" s="14">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="V59" s="14">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="W59" s="1">
-        <v>1647.6</v>
+        <v>1912.2</v>
       </c>
       <c r="X59">
         <v>5</v>
@@ -5504,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="Z59" s="7">
-        <v>164.76</v>
+        <v>191.22</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
@@ -5512,72 +5534,59 @@
         <v>45078</v>
       </c>
       <c r="B60" s="12">
-        <v>0.37777777777777777</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G60" t="s">
         <v>73</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I60">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J60" s="9">
-        <v>1.127</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="K60">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M60">
-        <v>142</v>
-      </c>
-      <c r="N60" t="s">
-        <v>115</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P60" s="3">
-        <v>10343.9</v>
-      </c>
-      <c r="Q60" s="1">
-        <f>(P60*Y60)/1000</f>
-        <v>1034.3900000000001</v>
+        <v>168</v>
       </c>
       <c r="R60" s="1">
         <v>4</v>
       </c>
       <c r="S60" s="14">
-        <v>9.1</v>
+        <v>3.6</v>
       </c>
       <c r="T60" s="14">
-        <v>6.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="V60" s="14">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W60" s="1">
-        <v>1912.2</v>
+        <v>5565.6</v>
       </c>
       <c r="X60">
         <v>5</v>
@@ -5586,7 +5595,7 @@
         <v>100</v>
       </c>
       <c r="Z60" s="7">
-        <v>191.22</v>
+        <v>556.55999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
@@ -5594,19 +5603,19 @@
         <v>45078</v>
       </c>
       <c r="B61" s="12">
-        <v>0.38055555555555554</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
         <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
         <v>74</v>
@@ -5615,38 +5624,38 @@
         <v>45</v>
       </c>
       <c r="I61">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J61" s="9">
-        <v>1.6279999999999999</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="K61">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M61">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="R61" s="1">
         <v>4</v>
       </c>
       <c r="S61" s="14">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="T61" s="14">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" si="0"/>
-        <v>0.40999999999999992</v>
+        <v>0.61</v>
       </c>
       <c r="V61" s="14">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="W61" s="1">
-        <v>5565.6</v>
+        <v>2427.4</v>
       </c>
       <c r="X61">
         <v>5</v>
@@ -5655,7 +5664,7 @@
         <v>100</v>
       </c>
       <c r="Z61" s="7">
-        <v>556.55999999999995</v>
+        <v>242.74</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -5663,68 +5672,73 @@
         <v>45078</v>
       </c>
       <c r="B62" s="12">
-        <v>0.38611111111111113</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G62" t="s">
         <v>75</v>
       </c>
       <c r="H62">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I62">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J62" s="9">
-        <v>1.8879999999999999</v>
+        <v>1.385</v>
       </c>
       <c r="K62">
         <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M62">
-        <v>219</v>
-      </c>
-      <c r="R62" s="1">
-        <v>4</v>
-      </c>
-      <c r="S62" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="T62" s="14">
-        <v>6.1</v>
-      </c>
-      <c r="U62" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
-      </c>
-      <c r="V62" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="W62" s="1">
-        <v>2427.4</v>
+        <v>310</v>
+      </c>
+      <c r="N62" t="s">
+        <v>113</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P62" s="1">
+        <v>5935.2</v>
+      </c>
+      <c r="Q62" s="1">
+        <f>(P62*Y62)/1000</f>
+        <v>593.52</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="W62" s="2">
+        <v>596.1</v>
       </c>
       <c r="X62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y62">
         <v>100</v>
       </c>
       <c r="Z62" s="7">
-        <v>242.74</v>
+        <v>59.61</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
@@ -5732,73 +5746,81 @@
         <v>45078</v>
       </c>
       <c r="B63" s="12">
-        <v>0.39166666666666666</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
         <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
         <v>76</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J63" s="9">
-        <v>1.385</v>
+        <v>1.258</v>
       </c>
       <c r="K63">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M63">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="N63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O63" s="1">
-        <v>2.2999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="P63" s="1">
-        <v>5935.2</v>
+        <v>10206.5</v>
       </c>
       <c r="Q63" s="1">
         <f>(P63*Y63)/1000</f>
-        <v>593.52</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="W63" s="2">
-        <v>596.1</v>
+        <v>1020.65</v>
+      </c>
+      <c r="R63" s="1">
+        <v>4</v>
+      </c>
+      <c r="S63" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="T63" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="U63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="V63" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="W63" s="1">
+        <v>1790.9</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y63">
         <v>100</v>
       </c>
       <c r="Z63" s="7">
-        <v>59.61</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>150</v>
+        <v>179.09</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
@@ -5806,72 +5828,72 @@
         <v>45078</v>
       </c>
       <c r="B64" s="12">
-        <v>0.55625000000000002</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
         <v>51</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G64" t="s">
         <v>77</v>
       </c>
       <c r="H64">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J64" s="9">
-        <v>1.258</v>
+        <v>1.337</v>
       </c>
       <c r="K64">
         <v>28</v>
       </c>
       <c r="L64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M64">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="N64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O64" s="1">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="P64" s="1">
-        <v>10206.5</v>
+        <v>8331.4</v>
       </c>
       <c r="Q64" s="1">
         <f>(P64*Y64)/1000</f>
-        <v>1020.65</v>
+        <v>833.14</v>
       </c>
       <c r="R64" s="1">
         <v>4</v>
       </c>
-      <c r="S64" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="T64" s="15">
-        <v>3.3</v>
+      <c r="S64" s="16">
+        <v>10.1</v>
+      </c>
+      <c r="T64" s="16">
+        <v>4</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="V64" s="14">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="W64" s="1">
-        <v>1790.9</v>
+        <v>1899.8</v>
       </c>
       <c r="X64">
         <v>5</v>
@@ -5880,7 +5902,7 @@
         <v>100</v>
       </c>
       <c r="Z64" s="7">
-        <v>179.09</v>
+        <v>189.98</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
@@ -5888,72 +5910,72 @@
         <v>45078</v>
       </c>
       <c r="B65" s="12">
-        <v>0.56111111111111112</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
         <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H65">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I65">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J65" s="9">
-        <v>1.337</v>
+        <v>1.444</v>
       </c>
       <c r="K65">
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M65">
+        <v>186</v>
+      </c>
+      <c r="N65" t="s">
         <v>113</v>
       </c>
-      <c r="N65" t="s">
-        <v>115</v>
-      </c>
       <c r="O65" s="1">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P65" s="1">
-        <v>8331.4</v>
+        <v>10308.299999999999</v>
       </c>
       <c r="Q65" s="1">
         <f>(P65*Y65)/1000</f>
-        <v>833.14</v>
+        <v>1030.83</v>
       </c>
       <c r="R65" s="1">
         <v>4</v>
       </c>
-      <c r="S65" s="16">
-        <v>10.1</v>
-      </c>
-      <c r="T65" s="16">
-        <v>4</v>
+      <c r="S65" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="T65" s="14">
+        <v>4.5999999999999996</v>
       </c>
       <c r="U65" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="V65" s="14">
-        <v>5.4</v>
+        <v>8.7205000000000005E-2</v>
       </c>
       <c r="W65" s="1">
-        <v>1899.8</v>
+        <v>1667.6</v>
       </c>
       <c r="X65">
         <v>5</v>
@@ -5962,7 +5984,7 @@
         <v>100</v>
       </c>
       <c r="Z65" s="7">
-        <v>189.98</v>
+        <v>166.76</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
@@ -5970,72 +5992,47 @@
         <v>45078</v>
       </c>
       <c r="B66" s="12">
-        <v>0.56527777777777777</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H66">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I66">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J66" s="9">
-        <v>1.444</v>
+        <v>1.837</v>
       </c>
       <c r="K66">
         <v>28</v>
       </c>
       <c r="L66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M66">
-        <v>186</v>
-      </c>
-      <c r="N66" t="s">
-        <v>115</v>
-      </c>
-      <c r="O66" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="P66" s="1">
-        <v>10308.299999999999</v>
-      </c>
-      <c r="Q66" s="1">
-        <f>(P66*Y66)/1000</f>
-        <v>1030.83</v>
-      </c>
-      <c r="R66" s="1">
-        <v>4</v>
-      </c>
-      <c r="S66" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="T66" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="V66" s="14">
-        <v>8.7205000000000005E-2</v>
-      </c>
-      <c r="W66" s="1">
-        <v>1667.6</v>
+        <v>140</v>
+      </c>
+      <c r="U66" s="1"/>
+      <c r="V66" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W66" s="2">
+        <v>1721.2</v>
       </c>
       <c r="X66">
         <v>5</v>
@@ -6044,39 +6041,42 @@
         <v>100</v>
       </c>
       <c r="Z66" s="7">
-        <v>166.76</v>
+        <v>172.12</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="B67" s="12">
-        <v>0.5708333333333333</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
         <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G67" t="s">
         <v>79</v>
       </c>
       <c r="H67">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I67">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J67" s="9">
-        <v>1.837</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="K67">
         <v>28</v>
@@ -6085,14 +6085,26 @@
         <v>102</v>
       </c>
       <c r="M67">
-        <v>140</v>
-      </c>
-      <c r="U67" s="1"/>
-      <c r="V67" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W67" s="2">
-        <v>1721.2</v>
+        <v>120</v>
+      </c>
+      <c r="R67" s="1">
+        <v>4</v>
+      </c>
+      <c r="S67" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="T67" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="U67" s="1">
+        <f t="shared" ref="U67:U89" si="2">(T67*Y67)/1000</f>
+        <v>0.94</v>
+      </c>
+      <c r="V67" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="W67" s="3">
+        <v>2408.1</v>
       </c>
       <c r="X67">
         <v>5</v>
@@ -6101,10 +6113,7 @@
         <v>100</v>
       </c>
       <c r="Z67" s="7">
-        <v>172.12</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>149</v>
+        <v>240.81</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
@@ -6112,59 +6121,72 @@
         <v>45083</v>
       </c>
       <c r="B68" s="12">
-        <v>0.36874999999999997</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G68" t="s">
         <v>80</v>
       </c>
       <c r="H68">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J68" s="9">
-        <v>1.7749999999999999</v>
+        <v>1.448</v>
       </c>
       <c r="K68">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M68">
-        <v>120</v>
+        <v>156</v>
+      </c>
+      <c r="N68" t="s">
+        <v>113</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P68" s="1">
+        <v>10203.4</v>
+      </c>
+      <c r="Q68" s="1">
+        <f>(P68*Y68)/1000</f>
+        <v>1020.34</v>
       </c>
       <c r="R68" s="1">
         <v>4</v>
       </c>
       <c r="S68" s="14">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T68" s="14">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:U91" si="2">(T68*Y68)/1000</f>
-        <v>0.94</v>
-      </c>
-      <c r="V68" s="16">
-        <v>4.8</v>
-      </c>
-      <c r="W68" s="3">
-        <v>2408.1</v>
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="V68" s="14">
+        <v>7.1833999999999995E-2</v>
+      </c>
+      <c r="W68" s="1">
+        <v>4492.3</v>
       </c>
       <c r="X68">
         <v>5</v>
@@ -6173,7 +6195,7 @@
         <v>100</v>
       </c>
       <c r="Z68" s="7">
-        <v>240.81</v>
+        <v>449.23</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
@@ -6181,72 +6203,59 @@
         <v>45083</v>
       </c>
       <c r="B69" s="12">
-        <v>0.37222222222222223</v>
+        <v>0.37638888888888888</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69" t="s">
         <v>81</v>
       </c>
       <c r="H69">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I69">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J69" s="9">
-        <v>1.448</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="K69">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M69">
-        <v>156</v>
-      </c>
-      <c r="N69" t="s">
-        <v>115</v>
-      </c>
-      <c r="O69" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P69" s="1">
-        <v>10203.4</v>
-      </c>
-      <c r="Q69" s="1">
-        <f>(P69*Y69)/1000</f>
-        <v>1020.34</v>
+        <v>105</v>
       </c>
       <c r="R69" s="1">
         <v>4</v>
       </c>
       <c r="S69" s="14">
-        <v>0.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T69" s="14">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="U69" s="1">
         <f t="shared" si="2"/>
-        <v>0.19</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V69" s="14">
-        <v>7.1833999999999995E-2</v>
+        <v>0.4</v>
       </c>
       <c r="W69" s="1">
-        <v>4492.3</v>
+        <v>1943.6</v>
       </c>
       <c r="X69">
         <v>5</v>
@@ -6255,7 +6264,7 @@
         <v>100</v>
       </c>
       <c r="Z69" s="7">
-        <v>449.23</v>
+        <v>194.36</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
@@ -6263,59 +6272,72 @@
         <v>45083</v>
       </c>
       <c r="B70" s="12">
-        <v>0.37638888888888888</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G70" t="s">
         <v>82</v>
       </c>
       <c r="H70">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I70">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J70" s="9">
-        <v>1.5169999999999999</v>
+        <v>1.514</v>
       </c>
       <c r="K70">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M70">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="N70" t="s">
+        <v>113</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P70" s="1">
+        <v>9349.1</v>
+      </c>
+      <c r="Q70" s="1">
+        <f>(P70*Y70)/1000</f>
+        <v>934.91</v>
       </c>
       <c r="R70" s="1">
         <v>4</v>
       </c>
       <c r="S70" s="14">
-        <v>4.0999999999999996</v>
+        <v>4.8828000000000003E-2</v>
       </c>
       <c r="T70" s="14">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="U70" s="1">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="V70" s="14">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="W70" s="1">
-        <v>1943.6</v>
+        <v>2028.3</v>
       </c>
       <c r="X70">
         <v>5</v>
@@ -6324,7 +6346,7 @@
         <v>100</v>
       </c>
       <c r="Z70" s="7">
-        <v>194.36</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
@@ -6332,72 +6354,72 @@
         <v>45083</v>
       </c>
       <c r="B71" s="12">
-        <v>0.37847222222222227</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
         <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G71" t="s">
         <v>83</v>
       </c>
       <c r="H71">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I71">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J71" s="9">
-        <v>1.514</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="K71">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M71">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N71" t="s">
-        <v>115</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P71" s="1">
-        <v>9349.1</v>
+        <v>113</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P71" s="2">
+        <v>9524.4</v>
       </c>
       <c r="Q71" s="1">
         <f>(P71*Y71)/1000</f>
-        <v>934.91</v>
+        <v>952.44</v>
       </c>
       <c r="R71" s="1">
         <v>4</v>
       </c>
       <c r="S71" s="14">
-        <v>4.8828000000000003E-2</v>
+        <v>0.2</v>
       </c>
       <c r="T71" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U71" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V71" s="14">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="W71" s="1">
-        <v>2028.3</v>
+        <v>1522.8</v>
       </c>
       <c r="X71">
         <v>5</v>
@@ -6406,7 +6428,7 @@
         <v>100</v>
       </c>
       <c r="Z71" s="7">
-        <v>202.83</v>
+        <v>152.28</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
@@ -6414,19 +6436,19 @@
         <v>45083</v>
       </c>
       <c r="B72" s="12">
-        <v>0.5444444444444444</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G72" t="s">
         <v>84</v>
@@ -6435,51 +6457,38 @@
         <v>40</v>
       </c>
       <c r="I72">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J72" s="9">
-        <v>1.3520000000000001</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="K72">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M72">
-        <v>141</v>
-      </c>
-      <c r="N72" t="s">
-        <v>115</v>
-      </c>
-      <c r="O72" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="P72" s="2">
-        <v>9524.4</v>
-      </c>
-      <c r="Q72" s="1">
-        <f>(P72*Y72)/1000</f>
-        <v>952.44</v>
+        <v>222</v>
       </c>
       <c r="R72" s="1">
         <v>4</v>
       </c>
-      <c r="S72" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="T72" s="14">
-        <v>6</v>
+      <c r="S72" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="T72" s="15">
+        <v>7.1</v>
       </c>
       <c r="U72" s="1">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="V72" s="14">
         <v>1.9</v>
       </c>
       <c r="W72" s="1">
-        <v>1522.8</v>
+        <v>1889.1</v>
       </c>
       <c r="X72">
         <v>5</v>
@@ -6488,7 +6497,7 @@
         <v>100</v>
       </c>
       <c r="Z72" s="7">
-        <v>152.28</v>
+        <v>188.91</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
@@ -6496,59 +6505,59 @@
         <v>45083</v>
       </c>
       <c r="B73" s="12">
-        <v>0.54791666666666672</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
         <v>85</v>
       </c>
       <c r="H73">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I73">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J73" s="9">
-        <v>1.3979999999999999</v>
+        <v>1.617</v>
       </c>
       <c r="K73">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M73">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="R73" s="1">
         <v>4</v>
       </c>
-      <c r="S73" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="T73" s="15">
-        <v>7.1</v>
+      <c r="S73" s="17">
+        <v>1.9</v>
+      </c>
+      <c r="T73" s="17">
+        <v>6.8</v>
       </c>
       <c r="U73" s="1">
         <f t="shared" si="2"/>
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="V73" s="14">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="W73" s="1">
-        <v>1889.1</v>
+        <v>2539.8000000000002</v>
       </c>
       <c r="X73">
         <v>5</v>
@@ -6557,7 +6566,7 @@
         <v>100</v>
       </c>
       <c r="Z73" s="7">
-        <v>188.91</v>
+        <v>253.98000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
@@ -6565,59 +6574,72 @@
         <v>45083</v>
       </c>
       <c r="B74" s="12">
-        <v>0.55347222222222225</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
         <v>86</v>
       </c>
       <c r="H74">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I74">
         <v>60</v>
       </c>
       <c r="J74" s="9">
-        <v>1.617</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="K74">
         <v>28</v>
       </c>
       <c r="L74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M74">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="N74" t="s">
+        <v>113</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="P74" s="3">
+        <v>12024.9</v>
+      </c>
+      <c r="Q74" s="1">
+        <f>(P74*Y74)/1000</f>
+        <v>1202.49</v>
       </c>
       <c r="R74" s="1">
         <v>4</v>
       </c>
-      <c r="S74" s="17">
-        <v>1.9</v>
-      </c>
-      <c r="T74" s="17">
-        <v>6.8</v>
+      <c r="S74" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="T74" s="18">
+        <v>3.6</v>
       </c>
       <c r="U74" s="1">
         <f t="shared" si="2"/>
-        <v>0.68</v>
-      </c>
-      <c r="V74" s="14">
-        <v>5.3</v>
-      </c>
-      <c r="W74" s="1">
-        <v>2539.8000000000002</v>
+        <v>0.36</v>
+      </c>
+      <c r="V74" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="W74" s="2">
+        <v>2908.6</v>
       </c>
       <c r="X74">
         <v>5</v>
@@ -6626,27 +6648,30 @@
         <v>100</v>
       </c>
       <c r="Z74" s="7">
-        <v>253.98000000000002</v>
+        <v>290.86</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B75" s="12">
-        <v>0.55625000000000002</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
         <v>51</v>
       </c>
       <c r="F75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G75" t="s">
         <v>87</v>
@@ -6655,51 +6680,51 @@
         <v>40</v>
       </c>
       <c r="I75">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J75" s="9">
-        <v>1.2689999999999999</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="K75">
         <v>28</v>
       </c>
       <c r="L75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M75">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="N75" t="s">
-        <v>115</v>
-      </c>
-      <c r="O75" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="P75" s="3">
-        <v>12024.9</v>
+        <v>113</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P75" s="1">
+        <v>8515</v>
       </c>
       <c r="Q75" s="1">
         <f>(P75*Y75)/1000</f>
-        <v>1202.49</v>
+        <v>851.5</v>
       </c>
       <c r="R75" s="1">
         <v>4</v>
       </c>
       <c r="S75" s="18">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T75" s="18">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="U75" s="1">
         <f t="shared" si="2"/>
-        <v>0.36</v>
-      </c>
-      <c r="V75" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="W75" s="2">
-        <v>2908.6</v>
+        <v>0.62</v>
+      </c>
+      <c r="V75" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="W75" s="3">
+        <v>1352.7</v>
       </c>
       <c r="X75">
         <v>5</v>
@@ -6708,10 +6733,7 @@
         <v>100</v>
       </c>
       <c r="Z75" s="7">
-        <v>290.86</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>148</v>
+        <v>135.27000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
@@ -6719,72 +6741,72 @@
         <v>45084</v>
       </c>
       <c r="B76" s="12">
-        <v>0.35972222222222222</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
         <v>51</v>
       </c>
       <c r="F76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G76" t="s">
         <v>88</v>
       </c>
       <c r="H76">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I76">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J76" s="9">
-        <v>1.4339999999999999</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="K76">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M76">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="N76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O76" s="1">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P76" s="1">
-        <v>8515</v>
+        <v>7750.5</v>
       </c>
       <c r="Q76" s="1">
         <f>(P76*Y76)/1000</f>
-        <v>851.5</v>
+        <v>775.05</v>
       </c>
       <c r="R76" s="1">
         <v>4</v>
       </c>
       <c r="S76" s="18">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="T76" s="18">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" si="2"/>
-        <v>0.62</v>
-      </c>
-      <c r="V76" s="16">
-        <v>2.4</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1352.7</v>
+        <v>0.47</v>
+      </c>
+      <c r="V76" s="14">
+        <v>4.2032E-2</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1851.5</v>
       </c>
       <c r="X76">
         <v>5</v>
@@ -6793,7 +6815,7 @@
         <v>100</v>
       </c>
       <c r="Z76" s="7">
-        <v>135.27000000000001</v>
+        <v>185.15</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
@@ -6801,72 +6823,59 @@
         <v>45084</v>
       </c>
       <c r="B77" s="12">
-        <v>0.36249999999999999</v>
+        <v>0.36527777777777781</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
         <v>89</v>
       </c>
       <c r="H77">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I77">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J77" s="9">
-        <v>1.5960000000000001</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="K77">
         <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M77">
-        <v>133</v>
-      </c>
-      <c r="N77" t="s">
-        <v>115</v>
-      </c>
-      <c r="O77" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P77" s="1">
-        <v>7750.5</v>
-      </c>
-      <c r="Q77" s="1">
-        <f>(P77*Y77)/1000</f>
-        <v>775.05</v>
+        <v>131</v>
       </c>
       <c r="R77" s="1">
         <v>4</v>
       </c>
-      <c r="S77" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="T77" s="18">
-        <v>4.7</v>
+      <c r="S77" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="T77" s="14">
+        <v>8.4</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" si="2"/>
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="V77" s="14">
-        <v>4.2032E-2</v>
+        <v>0.8</v>
       </c>
       <c r="W77" s="1">
-        <v>1851.5</v>
+        <v>2431.6999999999998</v>
       </c>
       <c r="X77">
         <v>5</v>
@@ -6875,7 +6884,7 @@
         <v>100</v>
       </c>
       <c r="Z77" s="7">
-        <v>185.15</v>
+        <v>243.16999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
@@ -6883,59 +6892,59 @@
         <v>45084</v>
       </c>
       <c r="B78" s="12">
-        <v>0.36527777777777781</v>
+        <v>0.36874999999999997</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
       <c r="D78">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H78">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I78">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J78" s="9">
-        <v>1.6659999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="K78">
         <v>23</v>
       </c>
       <c r="L78" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M78">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R78" s="1">
         <v>4</v>
       </c>
       <c r="S78" s="14">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="T78" s="14">
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="U78" s="1">
         <f t="shared" si="2"/>
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="V78" s="14">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="W78" s="1">
-        <v>2431.6999999999998</v>
+        <v>3455.6</v>
       </c>
       <c r="X78">
         <v>5</v>
@@ -6944,7 +6953,7 @@
         <v>100</v>
       </c>
       <c r="Z78" s="7">
-        <v>243.16999999999996</v>
+        <v>345.56</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
@@ -6952,59 +6961,59 @@
         <v>45084</v>
       </c>
       <c r="B79" s="12">
-        <v>0.36874999999999997</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
         <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H79">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I79">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J79" s="9">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="K79">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M79">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="R79" s="1">
         <v>4</v>
       </c>
       <c r="S79" s="14">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="T79" s="14">
-        <v>9.9</v>
+        <v>7.7</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" si="2"/>
-        <v>0.99</v>
-      </c>
-      <c r="V79" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="W79" s="1">
-        <v>3455.6</v>
+        <v>0.77</v>
+      </c>
+      <c r="V79" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="W79" s="5">
+        <v>2555.3000000000002</v>
       </c>
       <c r="X79">
         <v>5</v>
@@ -7013,7 +7022,7 @@
         <v>100</v>
       </c>
       <c r="Z79" s="7">
-        <v>345.56</v>
+        <v>255.53000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
@@ -7021,59 +7030,60 @@
         <v>45084</v>
       </c>
       <c r="B80" s="12">
-        <v>0.50069444444444444</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
+        <v>159</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80">
+      <c r="H80" s="8">
         <v>42</v>
       </c>
-      <c r="I80">
-        <v>65</v>
-      </c>
-      <c r="J80" s="9">
-        <v>1.79</v>
+      <c r="I80" s="8">
+        <v>55</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1.391</v>
       </c>
       <c r="K80">
-        <v>28</v>
-      </c>
-      <c r="L80" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>278</v>
-      </c>
-      <c r="R80" s="1">
-        <v>4</v>
-      </c>
-      <c r="S80" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="T80" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="U80" s="1">
-        <f t="shared" si="2"/>
-        <v>0.77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N80" t="s">
+        <v>113</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P80" s="1">
+        <v>6792.7</v>
+      </c>
+      <c r="Q80" s="1">
+        <f>(P80*Y80)/1000</f>
+        <v>679.27</v>
+      </c>
+      <c r="R80" s="1"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="1"/>
       <c r="V80" s="18">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="W80" s="5">
-        <v>2555.3000000000002</v>
+        <v>2849.4</v>
       </c>
       <c r="X80">
         <v>5</v>
@@ -7082,7 +7092,10 @@
         <v>100</v>
       </c>
       <c r="Z80" s="7">
-        <v>255.53000000000003</v>
+        <v>284.94</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -7090,60 +7103,72 @@
         <v>45084</v>
       </c>
       <c r="B81" s="12">
-        <v>0.50555555555555554</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
         <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H81" s="8">
-        <v>42</v>
-      </c>
-      <c r="I81" s="8">
-        <v>55</v>
-      </c>
-      <c r="J81" s="10">
-        <v>1.391</v>
+        <v>158</v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>70</v>
+      </c>
+      <c r="J81" s="9">
+        <v>1.502</v>
       </c>
       <c r="K81">
         <v>23</v>
       </c>
+      <c r="L81" t="s">
+        <v>102</v>
+      </c>
       <c r="M81">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O81" s="1">
-        <v>0.7</v>
+        <v>2.8365000000000001E-2</v>
       </c>
       <c r="P81" s="1">
-        <v>6792.7</v>
+        <v>11115.8</v>
       </c>
       <c r="Q81" s="1">
         <f>(P81*Y81)/1000</f>
-        <v>679.27</v>
-      </c>
-      <c r="R81" s="1"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="1"/>
+        <v>1111.58</v>
+      </c>
+      <c r="R81" s="1">
+        <v>4</v>
+      </c>
+      <c r="S81" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="T81" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="U81" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67</v>
+      </c>
       <c r="V81" s="18">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="W81" s="5">
-        <v>2849.4</v>
+        <v>4175.8999999999996</v>
       </c>
       <c r="X81">
         <v>5</v>
@@ -7152,10 +7177,7 @@
         <v>100</v>
       </c>
       <c r="Z81" s="7">
-        <v>284.94</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>151</v>
+        <v>417.58999999999992</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -7163,72 +7185,59 @@
         <v>45084</v>
       </c>
       <c r="B82" s="12">
-        <v>0.50763888888888886</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H82">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I82">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J82" s="9">
-        <v>1.502</v>
+        <v>1.411</v>
       </c>
       <c r="K82">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M82">
-        <v>104</v>
-      </c>
-      <c r="N82" t="s">
-        <v>115</v>
-      </c>
-      <c r="O82" s="1">
-        <v>2.8365000000000001E-2</v>
-      </c>
-      <c r="P82" s="1">
-        <v>11115.8</v>
-      </c>
-      <c r="Q82" s="1">
-        <f>(P82*Y82)/1000</f>
-        <v>1111.58</v>
+        <v>199</v>
       </c>
       <c r="R82" s="1">
-        <v>4</v>
-      </c>
-      <c r="S82" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="T82" s="19">
-        <v>6.7</v>
+        <v>3</v>
+      </c>
+      <c r="S82" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="T82" s="1">
+        <v>6.2</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" si="2"/>
-        <v>0.67</v>
-      </c>
-      <c r="V82" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="W82" s="5">
-        <v>4175.8999999999996</v>
+        <v>0.62</v>
+      </c>
+      <c r="V82" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="W82" s="6">
+        <v>1683.2</v>
       </c>
       <c r="X82">
         <v>5</v>
@@ -7237,67 +7246,80 @@
         <v>100</v>
       </c>
       <c r="Z82" s="7">
-        <v>417.58999999999992</v>
+        <v>168.32</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B83" s="12">
-        <v>0.51111111111111118</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I83">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J83" s="9">
-        <v>1.411</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="K83">
         <v>28</v>
       </c>
       <c r="L83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M83">
-        <v>199</v>
+        <v>119</v>
+      </c>
+      <c r="N83" t="s">
+        <v>113</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P83" s="1">
+        <v>10717.5</v>
+      </c>
+      <c r="Q83" s="1">
+        <f>(P83*Y83)/1000</f>
+        <v>1071.75</v>
       </c>
       <c r="R83" s="1">
         <v>3</v>
       </c>
       <c r="S83" s="14">
-        <v>7.2</v>
+        <v>0.3</v>
       </c>
       <c r="T83" s="1">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" si="2"/>
-        <v>0.62</v>
-      </c>
-      <c r="V83" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="W83" s="6">
-        <v>1683.2</v>
+        <v>0.54</v>
+      </c>
+      <c r="V83" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="W83" s="1">
+        <v>1951.9</v>
       </c>
       <c r="X83">
         <v>5</v>
@@ -7306,7 +7328,7 @@
         <v>100</v>
       </c>
       <c r="Z83" s="7">
-        <v>168.32</v>
+        <v>195.19</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -7314,72 +7336,59 @@
         <v>45085</v>
       </c>
       <c r="B84" s="12">
-        <v>0.37222222222222223</v>
+        <v>0.37916666666666665</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="H84">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I84">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J84" s="9">
-        <v>1.2769999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="K84">
         <v>28</v>
       </c>
       <c r="L84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M84">
-        <v>119</v>
-      </c>
-      <c r="N84" t="s">
-        <v>115</v>
-      </c>
-      <c r="O84" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="P84" s="1">
-        <v>10717.5</v>
-      </c>
-      <c r="Q84" s="1">
-        <f>(P84*Y84)/1000</f>
-        <v>1071.75</v>
+        <v>144</v>
       </c>
       <c r="R84" s="1">
         <v>3</v>
       </c>
       <c r="S84" s="14">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="T84" s="1">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="V84" s="14">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="W84" s="1">
-        <v>1951.9</v>
+        <v>1399.8</v>
       </c>
       <c r="X84">
         <v>5</v>
@@ -7388,7 +7397,10 @@
         <v>100</v>
       </c>
       <c r="Z84" s="7">
-        <v>195.19</v>
+        <v>139.97999999999999</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -7396,48 +7408,72 @@
         <v>45085</v>
       </c>
       <c r="B85" s="12">
-        <v>0.3756944444444445</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C85">
         <v>5</v>
       </c>
       <c r="D85">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H85" s="8">
-        <v>44</v>
-      </c>
-      <c r="I85" s="8">
-        <v>67</v>
-      </c>
-      <c r="J85" s="10">
-        <v>1.7589999999999999</v>
+        <v>158</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85">
+        <v>39</v>
+      </c>
+      <c r="I85">
+        <v>62</v>
+      </c>
+      <c r="J85" s="9">
+        <v>1.2390000000000001</v>
       </c>
       <c r="K85">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s">
         <v>102</v>
       </c>
       <c r="M85">
-        <v>227</v>
-      </c>
-      <c r="S85" s="14"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="14">
-        <v>1</v>
-      </c>
-      <c r="W85" s="1">
-        <v>2011.9</v>
+        <v>115</v>
+      </c>
+      <c r="N85" t="s">
+        <v>113</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P85" s="1">
+        <v>9371.7999999999993</v>
+      </c>
+      <c r="Q85" s="1">
+        <f>(P85*Y85)/1000</f>
+        <v>937.17999999999984</v>
+      </c>
+      <c r="R85" s="1">
+        <v>3</v>
+      </c>
+      <c r="S85" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="T85" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="U85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66</v>
+      </c>
+      <c r="V85" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="W85" s="2">
+        <v>1890</v>
       </c>
       <c r="X85">
         <v>5</v>
@@ -7446,7 +7482,7 @@
         <v>100</v>
       </c>
       <c r="Z85" s="7">
-        <v>201.19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -7454,19 +7490,19 @@
         <v>45085</v>
       </c>
       <c r="B86" s="12">
-        <v>0.37916666666666665</v>
+        <v>0.5</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
@@ -7475,38 +7511,51 @@
         <v>41</v>
       </c>
       <c r="I86">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J86" s="9">
-        <v>1.46</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="K86">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M86">
-        <v>144</v>
+        <v>215</v>
+      </c>
+      <c r="N86" t="s">
+        <v>113</v>
+      </c>
+      <c r="O86" s="2">
+        <v>2</v>
+      </c>
+      <c r="P86" s="2">
+        <v>10505.5</v>
+      </c>
+      <c r="Q86" s="1">
+        <f>(P86*Y86)/1000</f>
+        <v>1050.55</v>
       </c>
       <c r="R86" s="1">
         <v>3</v>
       </c>
       <c r="S86" s="14">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="T86" s="1">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="U86" s="1">
         <f t="shared" si="2"/>
-        <v>0.67</v>
-      </c>
-      <c r="V86" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="W86" s="1">
-        <v>1399.8</v>
+        <v>0.42</v>
+      </c>
+      <c r="V86" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="W86" s="3">
+        <v>1803.6</v>
       </c>
       <c r="X86">
         <v>5</v>
@@ -7515,10 +7564,10 @@
         <v>100</v>
       </c>
       <c r="Z86" s="7">
-        <v>139.97999999999999</v>
+        <v>180.36</v>
       </c>
       <c r="AA86" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -7526,19 +7575,19 @@
         <v>45085</v>
       </c>
       <c r="B87" s="12">
-        <v>0.38263888888888892</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C87">
         <v>5</v>
       </c>
       <c r="D87">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G87" t="s">
         <v>95</v>
@@ -7547,51 +7596,38 @@
         <v>39</v>
       </c>
       <c r="I87">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J87" s="9">
-        <v>1.2390000000000001</v>
+        <v>1.298</v>
       </c>
       <c r="K87">
         <v>28</v>
       </c>
       <c r="L87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M87">
-        <v>115</v>
-      </c>
-      <c r="N87" t="s">
-        <v>115</v>
-      </c>
-      <c r="O87" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P87" s="1">
-        <v>9371.7999999999993</v>
-      </c>
-      <c r="Q87" s="1">
-        <f>(P87*Y87)/1000</f>
-        <v>937.17999999999984</v>
+        <v>154</v>
       </c>
       <c r="R87" s="1">
         <v>3</v>
       </c>
       <c r="S87" s="14">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="T87" s="1">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U87" s="1">
         <f t="shared" si="2"/>
-        <v>0.66</v>
-      </c>
-      <c r="V87" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="W87" s="2">
-        <v>1890</v>
+        <v>0.69</v>
+      </c>
+      <c r="V87" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="W87" s="1">
+        <v>1359.6</v>
       </c>
       <c r="X87">
         <v>5</v>
@@ -7600,7 +7636,10 @@
         <v>100</v>
       </c>
       <c r="Z87" s="7">
-        <v>189</v>
+        <v>135.96</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -7608,84 +7647,51 @@
         <v>45085</v>
       </c>
       <c r="B88" s="12">
-        <v>0.5</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="C88">
         <v>5</v>
       </c>
       <c r="D88">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
         <v>51</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G88" t="s">
         <v>96</v>
       </c>
       <c r="H88">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I88">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J88" s="9">
-        <v>1.3360000000000001</v>
-      </c>
-      <c r="K88">
-        <v>23</v>
-      </c>
-      <c r="L88" t="s">
-        <v>104</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="M88">
-        <v>215</v>
-      </c>
-      <c r="N88" t="s">
-        <v>115</v>
-      </c>
-      <c r="O88" s="2">
+        <v>150</v>
+      </c>
+      <c r="S88" s="14"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="W88" s="1">
+        <v>121.8</v>
+      </c>
+      <c r="X88">
         <v>2</v>
       </c>
-      <c r="P88" s="2">
-        <v>10505.5</v>
-      </c>
-      <c r="Q88" s="1">
-        <f>(P88*Y88)/1000</f>
-        <v>1050.55</v>
-      </c>
-      <c r="R88" s="1">
-        <v>3</v>
-      </c>
-      <c r="S88" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="T88" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="U88" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
-      </c>
-      <c r="V88" s="16">
-        <v>5.3</v>
-      </c>
-      <c r="W88" s="3">
-        <v>1803.6</v>
-      </c>
-      <c r="X88">
-        <v>5</v>
-      </c>
       <c r="Y88">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="Z88" s="7">
-        <v>180.36</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>152</v>
+        <v>15.225</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -7693,59 +7699,72 @@
         <v>45085</v>
       </c>
       <c r="B89" s="12">
-        <v>0.50347222222222221</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="C89">
         <v>5</v>
       </c>
       <c r="D89">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G89" t="s">
         <v>97</v>
       </c>
       <c r="H89">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I89">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J89" s="9">
-        <v>1.298</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="K89">
         <v>28</v>
       </c>
       <c r="L89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M89">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="N89" t="s">
+        <v>113</v>
+      </c>
+      <c r="O89" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="P89" s="6">
+        <v>8398.2000000000007</v>
+      </c>
+      <c r="Q89" s="1">
+        <f>(P89*Y89)/1000</f>
+        <v>839.82000000000016</v>
       </c>
       <c r="R89" s="1">
         <v>3</v>
       </c>
-      <c r="S89" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="T89" s="1">
-        <v>6.9</v>
+      <c r="S89" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="T89" s="2">
+        <v>6.7</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" si="2"/>
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="V89" s="14">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="W89" s="1">
-        <v>1359.6</v>
+        <v>1649</v>
       </c>
       <c r="X89">
         <v>5</v>
@@ -7754,149 +7773,12 @@
         <v>100</v>
       </c>
       <c r="Z89" s="7">
-        <v>135.96</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
-        <v>45085</v>
-      </c>
-      <c r="B90" s="12">
-        <v>0.50555555555555554</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>97</v>
-      </c>
-      <c r="E90" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" t="s">
-        <v>98</v>
-      </c>
-      <c r="H90">
-        <v>42</v>
-      </c>
-      <c r="I90">
-        <v>70</v>
-      </c>
-      <c r="J90" s="9">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="M90">
-        <v>150</v>
-      </c>
-      <c r="S90" s="14"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="W90" s="1">
-        <v>121.8</v>
-      </c>
-      <c r="X90">
-        <v>2</v>
-      </c>
-      <c r="Y90">
-        <v>125</v>
-      </c>
-      <c r="Z90" s="7">
-        <v>15.225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
-        <v>45085</v>
-      </c>
-      <c r="B91" s="12">
-        <v>0.50972222222222219</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>98</v>
-      </c>
-      <c r="E91" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" t="s">
-        <v>160</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
-      </c>
-      <c r="H91">
-        <v>44</v>
-      </c>
-      <c r="I91">
-        <v>51</v>
-      </c>
-      <c r="J91" s="9">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="K91">
-        <v>28</v>
-      </c>
-      <c r="L91" t="s">
-        <v>104</v>
-      </c>
-      <c r="M91">
-        <v>117</v>
-      </c>
-      <c r="N91" t="s">
-        <v>115</v>
-      </c>
-      <c r="O91" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="P91" s="6">
-        <v>8398.2000000000007</v>
-      </c>
-      <c r="Q91" s="1">
-        <f>(P91*Y91)/1000</f>
-        <v>839.82000000000016</v>
-      </c>
-      <c r="R91" s="1">
-        <v>3</v>
-      </c>
-      <c r="S91" s="15">
-        <v>4.8</v>
-      </c>
-      <c r="T91" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="U91" s="1">
-        <f t="shared" si="2"/>
-        <v>0.67</v>
-      </c>
-      <c r="V91" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W91" s="1">
-        <v>1649</v>
-      </c>
-      <c r="X91">
-        <v>5</v>
-      </c>
-      <c r="Y91">
-        <v>100</v>
-      </c>
-      <c r="Z91" s="7">
         <v>164.9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:AA91">
-    <sortCondition ref="D2:D91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:AA89">
+    <sortCondition ref="D2:D89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7919,16 +7801,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7968,7 +7850,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>AVERAGE(Data!S83:S91)</f>
+        <f>AVERAGE(Data!S82:S89)</f>
         <v>3.0857142857142859</v>
       </c>
       <c r="C4" s="3">
@@ -7980,7 +7862,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>AVERAGE(Data!S56:S82)</f>
+        <f>AVERAGE(Data!S56:S81)</f>
         <v>2.4934273043478261</v>
       </c>
       <c r="C5" s="3">
@@ -8011,21 +7893,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <f>AVERAGE(Data!O2:O47)</f>
@@ -8035,7 +7917,7 @@
         <v>1581.8</v>
       </c>
       <c r="E2" s="8">
-        <f>AVERAGE(Data!O2:O91)</f>
+        <f>AVERAGE(Data!O2:O89)</f>
         <v>1.2990487333333331</v>
       </c>
       <c r="F2" s="8">
@@ -8045,10 +7927,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(Data!O48:O91)</f>
+        <f>AVERAGE(Data!O48:O89)</f>
         <v>1.3707984782608695</v>
       </c>
       <c r="C3" s="1">
@@ -8105,7 +7987,7 @@
       </c>
       <c r="E2" s="8">
         <f>AVERAGE(Data!V:V)</f>
-        <v>2.2531903636363646</v>
+        <v>2.2869854883720944</v>
       </c>
       <c r="F2" s="8">
         <f>((STDEV(C2:C6))/(AVERAGE(C2:C6)))*100</f>
@@ -8129,8 +8011,8 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>AVERAGE(Data!V44:V63)</f>
-        <v>1.65</v>
+        <f>AVERAGE(Data!V44:V62)</f>
+        <v>1.7052631578947368</v>
       </c>
       <c r="C4" s="1">
         <v>617</v>
@@ -8141,7 +8023,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>AVERAGE(Data!V64:V83)</f>
+        <f>AVERAGE(Data!V63:V82)</f>
         <v>2.7200535499999998</v>
       </c>
       <c r="C5" s="1">
@@ -8153,8 +8035,8 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>AVERAGE(Data!V84:V91)</f>
-        <v>2.15</v>
+        <f>AVERAGE(Data!V83:V89)</f>
+        <v>2.3142857142857141</v>
       </c>
       <c r="C6" s="1">
         <v>655.8</v>
